--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\centro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\repos\centro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -420,13 +420,13 @@
       <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.7</v>
       </c>
@@ -434,7 +434,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44868</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>B3+1</f>
         <v>44869</v>
@@ -528,7 +528,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B52" si="3">B4+1</f>
         <v>44870</v>
@@ -552,7 +552,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" si="3"/>
         <v>44871</v>
@@ -574,7 +574,7 @@
         <v>0.27922752808988766</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="3"/>
         <v>44872</v>
@@ -596,7 +596,7 @@
         <v>0.2783033707865169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="3"/>
         <v>44873</v>
@@ -618,7 +618,7 @@
         <v>0.27737921348314615</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="3"/>
         <v>44874</v>
@@ -640,7 +640,7 @@
         <v>0.27645505617977534</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="3"/>
         <v>44875</v>
@@ -662,7 +662,7 @@
         <v>0.27553089887640458</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="3"/>
         <v>44876</v>
@@ -684,7 +684,7 @@
         <v>0.27460674157303383</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="3"/>
         <v>44877</v>
@@ -706,7 +706,7 @@
         <v>0.27368258426966302</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="3"/>
         <v>44878</v>
@@ -728,7 +728,7 @@
         <v>0.27275842696629227</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="3"/>
         <v>44879</v>
@@ -750,7 +750,7 @@
         <v>0.27183426966292151</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="3"/>
         <v>44880</v>
@@ -772,7 +772,7 @@
         <v>0.2709101123595507</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="3"/>
         <v>44881</v>
@@ -794,7 +794,7 @@
         <v>0.26998595505617995</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="3"/>
         <v>44882</v>
@@ -816,7 +816,7 @@
         <v>0.2690617977528092</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="3"/>
         <v>44883</v>
@@ -838,7 +838,7 @@
         <v>0.26813764044943839</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="3"/>
         <v>44884</v>
@@ -860,7 +860,7 @@
         <v>0.26721348314606763</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="3"/>
         <v>44885</v>
@@ -882,7 +882,7 @@
         <v>0.26628932584269688</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="3"/>
         <v>44886</v>
@@ -904,7 +904,7 @@
         <v>0.26536516853932607</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>44887</v>
@@ -926,7 +926,7 @@
         <v>0.26444101123595531</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>44888</v>
@@ -948,7 +948,7 @@
         <v>0.26351685393258456</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>44889</v>
@@ -970,7 +970,7 @@
         <v>0.26259269662921375</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>44890</v>
@@ -992,7 +992,7 @@
         <v>0.261668539325843</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="3"/>
         <v>44891</v>
@@ -1014,7 +1014,7 @@
         <v>0.26074438202247224</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="3"/>
         <v>44892</v>
@@ -1036,7 +1036,7 @@
         <v>0.25982022471910143</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="3"/>
         <v>44893</v>
@@ -1058,7 +1058,7 @@
         <v>0.25889606741573068</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="3"/>
         <v>44894</v>
@@ -1080,7 +1080,7 @@
         <v>0.25797191011235993</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="3"/>
         <v>44895</v>
@@ -1102,7 +1102,7 @@
         <v>0.25704775280898912</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="3"/>
         <v>44896</v>
@@ -1124,7 +1124,7 @@
         <v>0.25612359550561836</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="3"/>
         <v>44897</v>
@@ -1146,7 +1146,7 @@
         <v>0.25519943820224761</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="3"/>
         <v>44898</v>
@@ -1168,7 +1168,7 @@
         <v>0.2542752808988768</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="3"/>
         <v>44899</v>
@@ -1190,7 +1190,7 @@
         <v>0.25335112359550604</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="3"/>
         <v>44900</v>
@@ -1212,7 +1212,7 @@
         <v>0.25242696629213529</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="3"/>
         <v>44901</v>
@@ -1234,7 +1234,7 @@
         <v>0.25150280898876448</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="3"/>
         <v>44902</v>
@@ -1256,7 +1256,7 @@
         <v>0.25057865168539373</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="3"/>
         <v>44903</v>
@@ -1278,7 +1278,7 @@
         <v>0.24965449438202297</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="3"/>
         <v>44904</v>
@@ -1300,7 +1300,7 @@
         <v>0.24873033707865222</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" si="3"/>
         <v>44905</v>
@@ -1322,7 +1322,7 @@
         <v>0.24780617977528141</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="3"/>
         <v>44906</v>
@@ -1344,7 +1344,7 @@
         <v>0.24688202247191066</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="3"/>
         <v>44907</v>
@@ -1366,7 +1366,7 @@
         <v>0.2459578651685399</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" si="3"/>
         <v>44908</v>
@@ -1388,7 +1388,7 @@
         <v>0.24503370786516909</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="3"/>
         <v>44909</v>
@@ -1410,7 +1410,7 @@
         <v>0.24410955056179834</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="3"/>
         <v>44910</v>
@@ -1432,7 +1432,7 @@
         <v>0.24318539325842758</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="3"/>
         <v>44911</v>
@@ -1454,7 +1454,7 @@
         <v>0.24226123595505678</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="3"/>
         <v>44912</v>
@@ -1476,7 +1476,7 @@
         <v>0.24133707865168602</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="3"/>
         <v>44913</v>
@@ -1498,7 +1498,7 @@
         <v>0.24041292134831527</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="3"/>
         <v>44914</v>
@@ -1520,7 +1520,7 @@
         <v>0.23948876404494451</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f t="shared" si="3"/>
         <v>44915</v>
@@ -1542,7 +1542,7 @@
         <v>0.2385646067415737</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f t="shared" si="3"/>
         <v>44916</v>
@@ -1564,7 +1564,7 @@
         <v>0.23764044943820295</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="3"/>
         <v>44917</v>
@@ -1586,7 +1586,7 @@
         <v>0.23671629213483217</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f>B52+1</f>
         <v>44918</v>
@@ -1608,7 +1608,7 @@
         <v>0.23579213483146139</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f>B53+1</f>
         <v>44919</v>
@@ -1637,13 +1637,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -1651,7 +1651,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>0.20833333333333334</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0.4375</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>0.6875</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>0.72916666666666663</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.75</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.85416666666666663</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>0.875</v>
       </c>
@@ -1981,7 +1981,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>7.5</v>
+      </c>
+      <c r="O15">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="P15">
+        <f>O15/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>0.22916666666666666</v>
       </c>
@@ -2009,8 +2022,12 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f>N15/P15</f>
+        <v>4.7746482927568605</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0.25</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2075,8 +2092,11 @@
       <c r="M19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>4.7746482927568605</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -2138,7 +2158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.6875</v>
       </c>
@@ -2171,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>0.72916666666666663</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0.75</v>
       </c>
@@ -2229,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>0.85416666666666663</v>
       </c>
@@ -2291,7 +2311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>0.875</v>
       </c>
@@ -2302,7 +2322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
         <f>E18+E19+E21+E22+E26</f>
         <v>0.45833333333333326</v>

--- a/Registro.xlsx
+++ b/Registro.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="49" r:id="rId5"/>
+    <pivotCache cacheId="57" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -83,6 +89,48 @@
   <si>
     <t>React native</t>
   </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>metros³</t>
+  </si>
+  <si>
+    <t>Q/m³</t>
+  </si>
+  <si>
+    <t>Piedrín</t>
+  </si>
+  <si>
+    <t>Conseguir trabajo</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Suma de Horas</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
 </sst>
 </file>
 
@@ -128,17 +176,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +222,629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="44915.751208217589" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:E30" sheet="Hoja2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Inicio" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T04:30:00" maxDate="1899-12-30T20:30:00"/>
+    </cacheField>
+    <cacheField name="Final" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T05:00:00" maxDate="1899-12-31T04:30:00"/>
+    </cacheField>
+    <cacheField name="Actividad" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Bañarme"/>
+        <s v="Ingles"/>
+        <s v="Conseguir trabajo"/>
+        <s v="Freelancer"/>
+        <s v="Hacking"/>
+        <s v="React"/>
+        <s v="Senior"/>
+        <s v="Data"/>
+        <s v="Almorzar"/>
+        <s v="Gimnasio"/>
+        <s v="Dormir"/>
+        <s v="Figma" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.49999999999999822" maxValue="8.0000000000000018"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="44915.752212037034" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:E30" sheet="Hoja2 (2)"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Inicio" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T04:30:00" maxDate="1899-12-30T20:30:00"/>
+    </cacheField>
+    <cacheField name="Final" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T05:00:00" maxDate="1899-12-31T04:30:00"/>
+    </cacheField>
+    <cacheField name="Actividad" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Bañarme"/>
+        <s v="Ingles"/>
+        <s v="Conseguir trabajo"/>
+        <s v="Freelancer"/>
+        <s v="Hacking"/>
+        <s v="React"/>
+        <s v="Senior"/>
+        <s v="Almorzar"/>
+        <s v="Gimnasio"/>
+        <s v="Dormir"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.49999999999999822" maxValue="8.0000000000000018"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <d v="1899-12-30T04:30:00"/>
+    <d v="1899-12-30T05:00:00"/>
+    <x v="0"/>
+    <n v="0.50000000000000022"/>
+  </r>
+  <r>
+    <d v="1899-12-30T05:00:00"/>
+    <d v="1899-12-30T06:00:00"/>
+    <x v="1"/>
+    <n v="0.99999999999999978"/>
+  </r>
+  <r>
+    <d v="1899-12-30T06:00:00"/>
+    <d v="1899-12-30T06:30:00"/>
+    <x v="2"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T06:30:00"/>
+    <d v="1899-12-30T07:00:00"/>
+    <x v="3"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T07:00:00"/>
+    <d v="1899-12-30T07:30:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T07:30:00"/>
+    <d v="1899-12-30T08:00:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T08:00:00"/>
+    <d v="1899-12-30T08:30:00"/>
+    <x v="5"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T08:30:00"/>
+    <d v="1899-12-30T09:00:00"/>
+    <x v="5"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T09:00:00"/>
+    <d v="1899-12-30T09:30:00"/>
+    <x v="6"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T09:30:00"/>
+    <d v="1899-12-30T10:00:00"/>
+    <x v="6"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T10:00:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <x v="7"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <x v="7"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <x v="5"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T12:00:00"/>
+    <x v="5"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T12:00:00"/>
+    <d v="1899-12-30T12:30:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T12:30:00"/>
+    <d v="1899-12-30T13:00:00"/>
+    <x v="7"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T13:00:00"/>
+    <d v="1899-12-30T14:00:00"/>
+    <x v="8"/>
+    <n v="1.0000000000000018"/>
+  </r>
+  <r>
+    <d v="1899-12-30T14:00:00"/>
+    <d v="1899-12-30T14:30:00"/>
+    <x v="7"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T14:30:00"/>
+    <d v="1899-12-30T15:00:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T15:00:00"/>
+    <d v="1899-12-30T15:30:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T15:30:00"/>
+    <d v="1899-12-30T16:00:00"/>
+    <x v="7"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T16:00:00"/>
+    <d v="1899-12-30T16:30:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T16:30:00"/>
+    <d v="1899-12-30T17:00:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:00:00"/>
+    <d v="1899-12-30T17:30:00"/>
+    <x v="7"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:30:00"/>
+    <d v="1899-12-30T18:00:00"/>
+    <x v="7"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:00:00"/>
+    <d v="1899-12-30T18:30:00"/>
+    <x v="0"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:30:00"/>
+    <d v="1899-12-30T20:00:00"/>
+    <x v="9"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <d v="1899-12-30T20:00:00"/>
+    <d v="1899-12-30T20:30:00"/>
+    <x v="0"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T20:30:00"/>
+    <d v="1899-12-31T04:30:00"/>
+    <x v="10"/>
+    <n v="8.0000000000000018"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <d v="1899-12-30T04:30:00"/>
+    <d v="1899-12-30T05:00:00"/>
+    <x v="0"/>
+    <n v="0.50000000000000022"/>
+  </r>
+  <r>
+    <d v="1899-12-30T05:00:00"/>
+    <d v="1899-12-30T06:00:00"/>
+    <x v="1"/>
+    <n v="0.99999999999999978"/>
+  </r>
+  <r>
+    <d v="1899-12-30T06:00:00"/>
+    <d v="1899-12-30T06:30:00"/>
+    <x v="2"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T06:30:00"/>
+    <d v="1899-12-30T07:00:00"/>
+    <x v="3"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T07:00:00"/>
+    <d v="1899-12-30T07:30:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T07:30:00"/>
+    <d v="1899-12-30T08:00:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T08:00:00"/>
+    <d v="1899-12-30T08:30:00"/>
+    <x v="5"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T08:30:00"/>
+    <d v="1899-12-30T09:00:00"/>
+    <x v="5"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T09:00:00"/>
+    <d v="1899-12-30T09:30:00"/>
+    <x v="6"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T09:30:00"/>
+    <d v="1899-12-30T10:00:00"/>
+    <x v="6"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T10:00:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <x v="4"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <x v="5"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T12:00:00"/>
+    <x v="5"/>
+    <n v="0.4999999999999995"/>
+  </r>
+  <r>
+    <d v="1899-12-30T12:00:00"/>
+    <d v="1899-12-30T12:30:00"/>
+    <x v="1"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T12:30:00"/>
+    <d v="1899-12-30T13:00:00"/>
+    <x v="1"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T13:00:00"/>
+    <d v="1899-12-30T14:00:00"/>
+    <x v="7"/>
+    <n v="1.0000000000000018"/>
+  </r>
+  <r>
+    <d v="1899-12-30T14:00:00"/>
+    <d v="1899-12-30T14:30:00"/>
+    <x v="1"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T14:30:00"/>
+    <d v="1899-12-30T15:00:00"/>
+    <x v="1"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T15:00:00"/>
+    <d v="1899-12-30T15:30:00"/>
+    <x v="5"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T15:30:00"/>
+    <d v="1899-12-30T16:00:00"/>
+    <x v="5"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T16:00:00"/>
+    <d v="1899-12-30T16:30:00"/>
+    <x v="4"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T16:30:00"/>
+    <d v="1899-12-30T17:00:00"/>
+    <x v="4"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:00:00"/>
+    <d v="1899-12-30T17:30:00"/>
+    <x v="1"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:30:00"/>
+    <d v="1899-12-30T18:00:00"/>
+    <x v="1"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:00:00"/>
+    <d v="1899-12-30T18:30:00"/>
+    <x v="0"/>
+    <n v="0.50000000000000089"/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:30:00"/>
+    <d v="1899-12-30T20:00:00"/>
+    <x v="8"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <d v="1899-12-30T20:00:00"/>
+    <d v="1899-12-30T20:30:00"/>
+    <x v="0"/>
+    <n v="0.49999999999999822"/>
+  </r>
+  <r>
+    <d v="1899-12-30T20:30:00"/>
+    <d v="1899-12-31T04:30:00"/>
+    <x v="9"/>
+    <n v="8.0000000000000018"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K21:L33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K21:L32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:E30" totalsRowShown="0">
+  <autoFilter ref="B1:E30"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Inicio" dataDxfId="5"/>
+    <tableColumn id="2" name="Final" dataDxfId="4"/>
+    <tableColumn id="3" name="Actividad"/>
+    <tableColumn id="4" name="Horas" dataDxfId="3">
+      <calculatedColumnFormula>(C2-B2)*1440/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="B1:E30" totalsRowShown="0">
+  <autoFilter ref="B1:E30"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Inicio" dataDxfId="2"/>
+    <tableColumn id="2" name="Final" dataDxfId="1"/>
+    <tableColumn id="3" name="Actividad"/>
+    <tableColumn id="4" name="Horas" dataDxfId="0">
+      <calculatedColumnFormula>(C2-B2)*1440/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,680 +2333,1918 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.20833333333333334</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.22916666666666666</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="E2" s="6">
+        <f>(C2-B2)*1440/60</f>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>0.22916666666666666</v>
-      </c>
       <c r="C3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E29" si="0">(C3-B3)*1440/60</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>0.6875</v>
-      </c>
       <c r="C8" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>0.75</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>0.75</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3">
         <v>0.75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="N12" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="O12" s="3">
         <v>0.85416666666666663</v>
       </c>
-      <c r="I10" t="s">
+      <c r="P12" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L10" s="3">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3">
         <v>0.85416666666666663</v>
       </c>
-      <c r="M10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="J14" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="O14" s="3">
         <v>0.875</v>
       </c>
-      <c r="I11" t="s">
+      <c r="P14" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="L11" s="3">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3">
         <v>0.875</v>
       </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="J18" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
         <v>0.875</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="O18" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="I12" t="s">
+      <c r="P18" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <f>C18-B18</f>
-        <v>0.14583333333333331</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="M18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C19" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3">
-        <f>C19-B19</f>
-        <v>0.14583333333333331</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="K21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="K24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="K25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="6">
+        <v>5.9999999999999973</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="K26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="6">
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="K27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <f>(C28-B28)*1440/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="K28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="6">
+        <f>(C29-B29)*1440/60</f>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="K29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.1875</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6">
+        <f>(C30-B30)*1440/60</f>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="K30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="K31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="K32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E34" s="3">
+        <f>SUM(E3:E25)</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <f>C38-B38</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3">
+        <f>C40-B40</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E44" s="3">
+        <f>E41+E40+E38</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <f>(C2-B2)*1440/60</f>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E29" si="0">(C3-B3)*1440/60</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H19" s="3">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="3">
+      <c r="N4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="L19" s="3">
+      <c r="O4" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C20" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C21" s="3">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3">
-        <f>C21-B21</f>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="K21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <v>0.6875</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C22" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3">
-        <f>C22-B22</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="K24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C25" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="H22" s="3">
+      <c r="D25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="K25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="6">
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.75</v>
       </c>
-      <c r="I22" t="s">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="K26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="K27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <f>(C28-B28)*1440/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="K28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E29" s="6">
+        <f>(C29-B29)*1440/60</f>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="K29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.1875</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6">
+        <f>(C30-B30)*1440/60</f>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="K30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="K31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="6">
+        <v>3.9999999999999973</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="K32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="3">
+        <f>SUM(E3:E25)</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="H25" s="3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <f>C38-B38</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C40" s="3">
         <v>0.875</v>
       </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3">
+        <f>C40-B40</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
         <v>0.875</v>
       </c>
-      <c r="M25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3">
-        <f>C26-B26</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="C41" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="I26" t="s">
+      <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="M26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E29" s="3">
-        <f>E18+E19+E21+E22+E26</f>
-        <v>0.45833333333333326</v>
-      </c>
-      <c r="F29" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="3">
+        <f>E41+E40+E38</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <f>D8/F8</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <f>D9/F8</f>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>